--- a/PROYECTO CP/Ejecucion de Pruebas Automatizadas/E3/IPS-Automatizacion-HU-263 Eliminar tripulante en la Lista de Tripulantes.xlsx
+++ b/PROYECTO CP/Ejecucion de Pruebas Automatizadas/E3/IPS-Automatizacion-HU-263 Eliminar tripulante en la Lista de Tripulantes.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\VUCE\DocumentoVuce\PROYECTO CP\Ejecucion de Pruebas Automatizadas\E3\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\VUCE\DocumentoVuce\PROYECTO CP\Ejecucion de Pruebas Automatizadas\E3\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{79E9178A-5FD3-4CC8-AF21-279B05432649}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FF4DD32C-D2D3-427A-8C26-FDD54C047190}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" tabRatio="801" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="801" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="DATO" sheetId="1" r:id="rId1"/>
@@ -279,23 +279,23 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
-      <xdr:col>0</xdr:col>
-      <xdr:colOff>704570</xdr:colOff>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>1</xdr:colOff>
       <xdr:row>12</xdr:row>
-      <xdr:rowOff>38100</xdr:rowOff>
+      <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>10</xdr:col>
-      <xdr:colOff>173263</xdr:colOff>
+      <xdr:colOff>66793</xdr:colOff>
       <xdr:row>31</xdr:row>
-      <xdr:rowOff>162884</xdr:rowOff>
+      <xdr:rowOff>86591</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="2" name="Imagen 1">
+        <xdr:cNvPr id="4" name="Imagen 3">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0500-000002000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{FB82FB7E-77B5-446C-81FA-35657F75ADC0}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -311,8 +311,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="704570" y="3086100"/>
-          <a:ext cx="7088693" cy="3744284"/>
+          <a:off x="762001" y="2286000"/>
+          <a:ext cx="6924792" cy="3706091"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -324,22 +324,22 @@
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
       <xdr:col>1</xdr:col>
-      <xdr:colOff>9232</xdr:colOff>
-      <xdr:row>34</xdr:row>
-      <xdr:rowOff>142874</xdr:rowOff>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>35</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>10</xdr:col>
-      <xdr:colOff>328685</xdr:colOff>
-      <xdr:row>54</xdr:row>
-      <xdr:rowOff>95249</xdr:rowOff>
+      <xdr:colOff>136998</xdr:colOff>
+      <xdr:row>55</xdr:row>
+      <xdr:rowOff>11206</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="3" name="Imagen 2">
+        <xdr:cNvPr id="5" name="Imagen 4">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0500-000003000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D82EF1FD-4103-474E-9B52-DD690B8F2C0D}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -355,8 +355,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="771232" y="7381874"/>
-          <a:ext cx="7177453" cy="3762375"/>
+          <a:off x="762000" y="6667500"/>
+          <a:ext cx="6994998" cy="3821206"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -367,23 +367,23 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
-      <xdr:col>0</xdr:col>
-      <xdr:colOff>748663</xdr:colOff>
-      <xdr:row>57</xdr:row>
-      <xdr:rowOff>142875</xdr:rowOff>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>523875</xdr:colOff>
+      <xdr:row>34</xdr:row>
+      <xdr:rowOff>1</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>10</xdr:col>
-      <xdr:colOff>411388</xdr:colOff>
-      <xdr:row>78</xdr:row>
-      <xdr:rowOff>10489</xdr:rowOff>
+      <xdr:col>20</xdr:col>
+      <xdr:colOff>242122</xdr:colOff>
+      <xdr:row>54</xdr:row>
+      <xdr:rowOff>173183</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="6" name="Imagen 5">
+        <xdr:cNvPr id="7" name="Imagen 6">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0500-000006000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{823A7B1F-40EA-4809-8845-D0B9FF930C0A}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -399,8 +399,140 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="748663" y="11763375"/>
-          <a:ext cx="7282725" cy="3868114"/>
+          <a:off x="8143875" y="6477001"/>
+          <a:ext cx="7338247" cy="3983182"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>71437</xdr:colOff>
+      <xdr:row>58</xdr:row>
+      <xdr:rowOff>95250</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>190559</xdr:colOff>
+      <xdr:row>79</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="8" name="Imagen 7">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{CD407DCD-81DB-466D-8583-6FA01C41C742}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId4"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="833437" y="11144250"/>
+          <a:ext cx="6977122" cy="3905250"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>500063</xdr:colOff>
+      <xdr:row>58</xdr:row>
+      <xdr:rowOff>71439</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>19</xdr:col>
+      <xdr:colOff>697972</xdr:colOff>
+      <xdr:row>78</xdr:row>
+      <xdr:rowOff>119063</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="9" name="Imagen 8">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{BDCB6FE3-E9F9-4E39-9F81-8A9D4C76C04B}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId5"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="8120063" y="11120439"/>
+          <a:ext cx="7055909" cy="3857624"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>20</xdr:col>
+      <xdr:colOff>47625</xdr:colOff>
+      <xdr:row>58</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>29</xdr:col>
+      <xdr:colOff>222408</xdr:colOff>
+      <xdr:row>78</xdr:row>
+      <xdr:rowOff>142875</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="10" name="Imagen 9">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{2F3686C2-5519-467F-B091-7595F8F160B4}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId6"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="15287625" y="11049000"/>
+          <a:ext cx="7032783" cy="3952875"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -741,8 +873,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
   <dimension ref="B2:C81"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B81" sqref="B81:C81"/>
+    <sheetView tabSelected="1" topLeftCell="A10" zoomScale="40" zoomScaleNormal="40" workbookViewId="0">
+      <selection activeCell="Y83" sqref="Y83"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.42578125" defaultRowHeight="15"/>
